--- a/biology/Médecine/Jean_Baltus/Jean_Baltus.xlsx
+++ b/biology/Médecine/Jean_Baltus/Jean_Baltus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DrJean Hubert Alphonse Joseph Baltus, né à Montzen, le 18 juin 1903 et décédé à Eupen le 9 janvier 1996 fut un médecin et homme politique belge catholique.
 Il fut sénateur coopté  de 1946 à 1950. Il s'attela particulièrement à la réhabilitation de la population germanophone des cantons de l'est, ayant été entrainée de force dans le régime allemand du troisième Reich. Son discours au Sénat est resté gravé dans l'histoire des cantons germanophones de Belgique. 
@@ -512,7 +524,9 @@
           <t>Généalogie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est fils de Jean Hubert Alphonse (1879-1954) et Marie-Louise Vanderheyden (1874-1946).
 Il épousa en 1930 Köttgen Maria Elisabeth (1905-1966);
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bio sur ODIS
  Portail de la politique belge   Portail de la médecine   Portail du conservatisme                   </t>
